--- a/MacroBackend/Glassnode/Saved_Data/GN_MetricsList.xlsx
+++ b/MacroBackend/Glassnode/Saved_Data/GN_MetricsList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G731"/>
+  <dimension ref="A1:G748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5128,11 +5128,11 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5161,11 +5161,11 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10507,7 +10507,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12091,7 +12091,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'STBL', 'name': 'All Stablecoins', 'tags': ['bundle'], 'exchanges': ['aggregated']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'STBL', 'name': 'All Stablecoins', 'tags': ['bundle'], 'exchanges': ['aggregated']}]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -17206,11 +17206,11 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['aggregated', 'bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['aggregated', 'binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['aggregated', 'binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['aggregated', 'bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[{'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}]</t>
+          <t>[{'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bitmex', 'bybit', 'checksig.com', 'crypto.com', 'deribit', 'huobi', 'kucoin', 'okex', 'swissborg']}]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -17569,7 +17569,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -18101,7 +18101,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -18134,7 +18134,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bybit', 'huobi', 'okex', 'poloniex']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'gate.io', 'hitbtc', 'huobi', 'kucoin']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'gemini', 'kucoin']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'nexo', 'poloniex']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinex', 'gate.io', 'gemini', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'poloniex']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'poloniex']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'poloniex']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bittrex', 'ftx', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'binance', 'gate.io', 'hitbtc', 'huobi', 'okex', 'zb.com']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'hitbtc', 'okex']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'cobinhood', 'coinbase', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'gate.io', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gemini', 'hitbtc', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bittrex', 'coinbase', 'coinex', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'huobi', 'kraken', 'okex', 'poloniex']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['bibox', 'huobi']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20'], 'exchanges': ['binance', 'coinex', 'gate.io', 'hitbtc']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20'], 'exchanges': ['bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinex', 'gate.io', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'ftx', 'gate.io', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'poloniex']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'ftx', 'gate.io', 'hitbtc', 'okex', 'zb.com']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'gate.io', 'huobi', 'okex', 'poloniex']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'deribit', 'ftx', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'crypto.com', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'coinex', 'gate.io', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gate.io', 'gemini', 'kucoin', 'poloniex']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bithumb', 'bittrex', 'coinex', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'hitbtc']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'coinbase', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'okex', 'poloniex']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'huobi', 'okex', 'poloniex']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'huobi', 'poloniex']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'gate.io', 'gemini', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'coinbase', 'crypto.com', 'ftx', 'gate.io', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken'], 'exchanges': ['binance', 'gate.io']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken'], 'exchanges': ['bibox', 'binance', 'bitfinex', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinbase', 'coinex', 'crypto.com', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'poloniex']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20'], 'exchanges': ['binance', 'gemini', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20'], 'exchanges': ['bibox', 'binance', 'bittrex', 'bybit', 'coinex', 'crypto.com', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'nexo', 'okex', 'poloniex']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20'], 'exchanges': ['binance', 'coinbase', 'gemini', 'poloniex']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20'], 'exchanges': ['bittrex', 'gemini']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20'], 'exchanges': ['binance', 'bybit', 'coinex', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kucoin', 'okex', 'poloniex']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['bybit', 'gate.io', 'huobi', 'kucoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'gate.io', 'gemini', 'nexo', 'poloniex']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin'], 'exchanges': ['binance', 'bittrex', 'coinbase', 'gate.io', 'gemini', 'huobi', 'nexo', 'poloniex']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20'], 'exchanges': ['binance', 'bittrex', 'gemini', 'hitbtc', 'kucoin', 'poloniex']}, {'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top'], 'exchanges': ['binance', 'bitfinex', 'bithumb', 'bitmex', 'bitstamp', 'bittrex', 'bybit', 'coinbase', 'coincheck', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'luno', 'okex', 'poloniex']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top'], 'exchanges': ['bibox', 'bigone', 'binance', 'bitfinex', 'bithumb', 'bittrex', 'bybit', 'cobinhood', 'coinbase', 'coinex', 'crypto.com', 'deribit', 'ftx', 'gate.io', 'gemini', 'hitbtc', 'huobi', 'kraken', 'kucoin', 'nexo', 'okex', 'poloniex', 'zb.com']}]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -18365,7 +18365,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -19483,7 +19483,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ATOM', 'name': 'Cosmos', 'tags': ['top']}, {'symbol': 'BNB', 'name': 'BSC', 'tags': ['top']}, {'symbol': 'DOT', 'name': 'Polkadot', 'tags': ['top']}, {'symbol': 'SOL', 'name': 'Solana', 'tags': ['top']}, {'symbol': 'AUD', 'name': 'Australian Dollar', 'tags': ['forex']}, {'symbol': 'EUR', 'name': 'Euro', 'tags': ['forex']}, {'symbol': 'CAD', 'name': 'Canadian Dollar', 'tags': ['forex']}, {'symbol': 'CHF', 'name': 'Swiss Franc', 'tags': ['forex']}, {'symbol': 'GBP', 'name': 'Pound Sterling', 'tags': ['forex']}, {'symbol': 'JPY', 'name': 'Japanese Yen', 'tags': ['forex']}, {'symbol': 'CNY', 'name': 'Chinese Yuan', 'tags': ['forex']}, {'symbol': 'KRW', 'name': 'Korean Won', 'tags': ['forex']}, {'symbol': 'NZD', 'name': 'New Zealand Dollar', 'tags': ['forex']}, {'symbol': 'BRL', 'name': 'Brazilian Real', 'tags': ['forex']}, {'symbol': 'SGD', 'name': 'Singapore Dollar', 'tags': ['forex']}, {'symbol': 'TRY', 'name': 'Turkish Lira', 'tags': ['forex']}, {'symbol': 'XAU', 'name': 'Gold', 'tags': ['commodity']}, {'symbol': 'XAG', 'name': 'Silver', 'tags': ['commodity']}, {'symbol': 'WTI', 'name': 'WTI Crude', 'tags': ['commodity']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ATOM', 'name': 'Cosmos', 'tags': ['top']}, {'symbol': 'BNB', 'name': 'BSC', 'tags': ['top']}, {'symbol': 'DOT', 'name': 'Polkadot', 'tags': ['top']}, {'symbol': 'SOL', 'name': 'Solana', 'tags': ['top']}, {'symbol': 'AUD', 'name': 'Australian Dollar', 'tags': ['forex']}, {'symbol': 'EUR', 'name': 'Euro', 'tags': ['forex']}, {'symbol': 'CAD', 'name': 'Canadian Dollar', 'tags': ['forex']}, {'symbol': 'CHF', 'name': 'Swiss Franc', 'tags': ['forex']}, {'symbol': 'GBP', 'name': 'Pound Sterling', 'tags': ['forex']}, {'symbol': 'JPY', 'name': 'Japanese Yen', 'tags': ['forex']}, {'symbol': 'CNY', 'name': 'Chinese Yuan', 'tags': ['forex']}, {'symbol': 'KRW', 'name': 'Korean Won', 'tags': ['forex']}, {'symbol': 'NZD', 'name': 'New Zealand Dollar', 'tags': ['forex']}, {'symbol': 'BRL', 'name': 'Brazilian Real', 'tags': ['forex']}, {'symbol': 'SGD', 'name': 'Singapore Dollar', 'tags': ['forex']}, {'symbol': 'TRY', 'name': 'Turkish Lira', 'tags': ['forex']}, {'symbol': 'XAU', 'name': 'Gold', 'tags': ['commodity']}, {'symbol': 'XAG', 'name': 'Silver', 'tags': ['commodity']}, {'symbol': 'WTI', 'name': 'WTI Crude', 'tags': ['commodity']}]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -20609,7 +20609,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ATOM', 'name': 'Cosmos', 'tags': ['top']}, {'symbol': 'BNB', 'name': 'BSC', 'tags': ['top']}, {'symbol': 'DOT', 'name': 'Polkadot', 'tags': ['top']}, {'symbol': 'SOL', 'name': 'Solana', 'tags': ['top']}, {'symbol': 'AUD', 'name': 'Australian Dollar', 'tags': ['forex']}, {'symbol': 'EUR', 'name': 'Euro', 'tags': ['forex']}, {'symbol': 'CAD', 'name': 'Canadian Dollar', 'tags': ['forex']}, {'symbol': 'CHF', 'name': 'Swiss Franc', 'tags': ['forex']}, {'symbol': 'GBP', 'name': 'Pound Sterling', 'tags': ['forex']}, {'symbol': 'JPY', 'name': 'Japanese Yen', 'tags': ['forex']}, {'symbol': 'CNY', 'name': 'Chinese Yuan', 'tags': ['forex']}, {'symbol': 'KRW', 'name': 'Korean Won', 'tags': ['forex']}, {'symbol': 'NZD', 'name': 'New Zealand Dollar', 'tags': ['forex']}, {'symbol': 'BRL', 'name': 'Brazilian Real', 'tags': ['forex']}, {'symbol': 'SGD', 'name': 'Singapore Dollar', 'tags': ['forex']}, {'symbol': 'TRY', 'name': 'Turkish Lira', 'tags': ['forex']}, {'symbol': 'XAU', 'name': 'Gold', 'tags': ['commodity']}, {'symbol': 'XAG', 'name': 'Silver', 'tags': ['commodity']}, {'symbol': 'WTI', 'name': 'WTI Crude', 'tags': ['commodity']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ATOM', 'name': 'Cosmos', 'tags': ['top']}, {'symbol': 'BNB', 'name': 'BSC', 'tags': ['top']}, {'symbol': 'DOT', 'name': 'Polkadot', 'tags': ['top']}, {'symbol': 'SOL', 'name': 'Solana', 'tags': ['top']}, {'symbol': 'AUD', 'name': 'Australian Dollar', 'tags': ['forex']}, {'symbol': 'EUR', 'name': 'Euro', 'tags': ['forex']}, {'symbol': 'CAD', 'name': 'Canadian Dollar', 'tags': ['forex']}, {'symbol': 'CHF', 'name': 'Swiss Franc', 'tags': ['forex']}, {'symbol': 'GBP', 'name': 'Pound Sterling', 'tags': ['forex']}, {'symbol': 'JPY', 'name': 'Japanese Yen', 'tags': ['forex']}, {'symbol': 'CNY', 'name': 'Chinese Yuan', 'tags': ['forex']}, {'symbol': 'KRW', 'name': 'Korean Won', 'tags': ['forex']}, {'symbol': 'NZD', 'name': 'New Zealand Dollar', 'tags': ['forex']}, {'symbol': 'BRL', 'name': 'Brazilian Real', 'tags': ['forex']}, {'symbol': 'SGD', 'name': 'Singapore Dollar', 'tags': ['forex']}, {'symbol': 'TRY', 'name': 'Turkish Lira', 'tags': ['forex']}, {'symbol': 'XAU', 'name': 'Gold', 'tags': ['commodity']}, {'symbol': 'XAG', 'name': 'Silver', 'tags': ['commodity']}, {'symbol': 'WTI', 'name': 'WTI Crude', 'tags': ['commodity']}]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -20642,7 +20642,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -20675,7 +20675,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}]</t>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}, {'symbol': 'LTC', 'name': 'Litecoin', 'tags': ['top']}, {'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -20869,7 +20869,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -22416,11 +22416,11 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>/v1/metrics/derivatives/options_atm_implied_volatility_3_months</t>
+          <t>/v1/metrics/derivatives/options_atm_implied_volatility_6_months</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -22449,11 +22449,11 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>/v1/metrics/derivatives/options_atm_implied_volatility_6_months</t>
+          <t>/v1/metrics/derivatives/options_atm_implied_volatility_3_months</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -23391,12 +23391,12 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>['10m']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>['JSON', 'CSV']</t>
+          <t>['JSON']</t>
         </is>
       </c>
     </row>
@@ -23424,12 +23424,12 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>['10m']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>['JSON', 'CSV']</t>
+          <t>['JSON']</t>
         </is>
       </c>
     </row>
@@ -23443,7 +23443,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -23509,11 +23509,11 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -23538,20 +23538,20 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>/v1/metrics/protocols/uniswap_liquidity_latest</t>
+          <t>/v1/metrics/protocols/uniswap_v3_transaction_count</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -23571,15 +23571,15 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>/v1/metrics/protocols/uniswap_volume_sum</t>
+          <t>/v1/metrics/protocols/uniswap_liquidity_latest</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MX', 'name': 'MX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'Uma', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'xDai', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MCDEX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'BZRX', 'name': 'bZx Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'Meta', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Crypto.com Chain', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OmiseGO', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'ChainLink Token', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': 'ZRX', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'HuobiPoolToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'HuobiToken', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'EnjinCoin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'Kucoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SAI', 'name': 'Single Collateral DAI', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNT', 'name': 'StatusNetwork', 'tags': ['erc20']}, {'symbol': 'MCO', 'name': 'Crypto.com', 'tags': ['erc20']}, {'symbol': 'WAX', 'name': 'WAX Token', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'ELF', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'DENT', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'LoopringCoin V2', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'ArcBlock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'PowerLedger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURS Token', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FunFair', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'LibraToken', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenXPay', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain Token', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Mainframe Token', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragon', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'CelerToken', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'UTRUST', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'WaBi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Republic', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix Network Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped BTC', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'Wrapped Ether', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'Synth sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'UniBright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'KeeperDAO', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'BadgerDAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'Barnbridge', 'tags': ['erc20', 'defi']}, {'symbol': 'DOUGH', 'name': 'PieDAO', 'tags': ['erc20']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool Concentrated Voting Power', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -23604,20 +23604,20 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>/v1/metrics/institutions/purpose_etf_holdings_sum</t>
+          <t>/v1/metrics/protocols/uniswap_v3_liquidity_latest</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>['NATIVE']</t>
+          <t>['NATIVE', 'USD']</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -23637,20 +23637,20 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>/v1/metrics/institutions/purpose_etf_flows_sum</t>
+          <t>/v1/metrics/protocols/uniswap_volume_sum</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>['NATIVE']</t>
+          <t>['NATIVE', 'USD']</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -23670,20 +23670,20 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>/v1/metrics/institutions/purpose_etf_aum_sum</t>
+          <t>/v1/metrics/protocols/uniswap_v3_volume_sum</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'TUSD', 'name': 'TrueUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'stETH', 'name': 'Lido Staked ETH', 'tags': ['erc20']}, {'symbol': 'SHIB', 'name': 'Shiba Inu', 'tags': ['erc20']}, {'symbol': 'APE', 'name': 'ApeCoin', 'tags': ['erc20']}, {'symbol': 'SAND', 'name': 'The Sandbox', 'tags': ['erc20']}, {'symbol': 'CREAM', 'name': 'Cream Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'CRV', 'name': 'Curve DAO Token', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PICKLE', 'name': 'Pickle Finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'SUSHI', 'name': 'SushiSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UNI', 'name': 'Uniswap', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AAVE', 'name': 'Aave', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YAM', 'name': 'YAM V3', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GNO', 'name': 'Gnosis', 'tags': ['erc20', 'defiToken']}, {'symbol': 'RSR', 'name': 'Reserve Rights', 'tags': ['erc20', 'defiToken']}, {'symbol': 'PNK', 'name': 'Kleros', 'tags': ['erc20']}, {'symbol': 'CHSB', 'name': 'SwissBorg', 'tags': ['erc20']}, {'symbol': 'UMA', 'name': 'UMA', 'tags': ['erc20', 'defiToken']}, {'symbol': 'STAKE', 'name': 'STAKE', 'tags': ['erc20', 'defiToken']}, {'symbol': 'YFI', 'name': 'yearn.finance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MCB', 'name': 'MUX Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'FTT', 'name': 'FTX Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'PNT', 'name': 'pNetwork', 'tags': ['erc20', 'defiToken']}, {'symbol': 'OCEAN', 'name': 'Ocean Protocol', 'tags': ['erc20']}, {'symbol': 'MTA', 'name': 'mStable Governance Token: Meta (MTA)', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAL', 'name': 'Balancer', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAND', 'name': 'Band Protocol', 'tags': ['erc20']}, {'symbol': 'AMPL', 'name': 'Ampleforth', 'tags': ['erc20', 'defiToken']}, {'symbol': 'DMG', 'name': 'DMM: Governance', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MKR', 'name': 'Maker', 'tags': ['erc20', 'defiToken']}, {'symbol': 'BAT', 'name': 'Basic Attention Token', 'tags': ['erc20']}, {'symbol': 'CRO', 'name': 'Cronos', 'tags': ['erc20']}, {'symbol': 'OMG', 'name': 'OMG Network', 'tags': ['erc20']}, {'symbol': 'LINK', 'name': 'Chainlink', 'tags': ['erc20']}, {'symbol': 'HOT', 'name': 'Holo', 'tags': ['erc20']}, {'symbol': 'ZRX', 'name': '0x Protocol', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HPT', 'name': 'Huobi Pool Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'HT', 'name': 'Huobi Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'ENJ', 'name': 'Enjin Coin', 'tags': ['erc20']}, {'symbol': 'KCS', 'name': 'KuCoin Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'SNT', 'name': 'Status', 'tags': ['erc20']}, {'symbol': 'ELF', 'name': 'aelf', 'tags': ['erc20']}, {'symbol': 'PPT', 'name': 'Populous', 'tags': ['erc20']}, {'symbol': 'MANA', 'name': 'Decentraland', 'tags': ['erc20']}, {'symbol': 'DENT', 'name': 'Dent', 'tags': ['erc20']}, {'symbol': 'SAN', 'name': 'Santiment Network Token', 'tags': ['erc20']}, {'symbol': 'RLC', 'name': 'iExec RLC', 'tags': ['erc20']}, {'symbol': 'LOOM', 'name': 'Loom Network', 'tags': ['erc20']}, {'symbol': 'LRC', 'name': 'Loopring', 'tags': ['erc20', 'defiToken']}, {'symbol': 'ABT', 'name': 'Arcblock', 'tags': ['erc20']}, {'symbol': 'QASH', 'name': 'QASH', 'tags': ['erc20']}, {'symbol': 'POWR', 'name': 'Powerledger', 'tags': ['erc20']}, {'symbol': 'NEXO', 'name': 'Nexo', 'tags': ['erc20']}, {'symbol': 'BNT', 'name': 'Bancor', 'tags': ['erc20', 'defiToken']}, {'symbol': 'GUSD', 'name': 'Gemini Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'EURS', 'name': 'STASIS EURO', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FUN', 'name': 'FUNToken', 'tags': ['erc20']}, {'symbol': 'POLY', 'name': 'Polymath', 'tags': ['erc20']}, {'symbol': 'BRD', 'name': 'Bread', 'tags': ['erc20']}, {'symbol': 'STORJ', 'name': 'Storj', 'tags': ['erc20']}, {'symbol': 'ENG', 'name': 'Enigma', 'tags': ['erc20']}, {'symbol': 'LBA', 'name': 'Cred', 'tags': ['erc20']}, {'symbol': 'LAMB', 'name': 'Lambda', 'tags': ['erc20']}, {'symbol': 'BIX', 'name': 'Bibox Token', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'VERI', 'name': 'Veritaseum', 'tags': ['erc20']}, {'symbol': 'PAY', 'name': 'TenX', 'tags': ['erc20']}, {'symbol': 'CVC', 'name': 'Civic', 'tags': ['erc20']}, {'symbol': 'QKC', 'name': 'QuarkChain', 'tags': ['erc20']}, {'symbol': 'MFT', 'name': 'Hifi Finance (Old)', 'tags': ['erc20']}, {'symbol': 'TEL', 'name': 'Telcoin', 'tags': ['erc20']}, {'symbol': 'DRGN', 'name': 'Dragonchain', 'tags': ['erc20']}, {'symbol': 'CND', 'name': 'Cindicator', 'tags': ['erc20']}, {'symbol': 'QNT', 'name': 'Quant', 'tags': ['erc20']}, {'symbol': 'ANT', 'name': 'Aragon', 'tags': ['erc20']}, {'symbol': 'CELR', 'name': 'Celer Network', 'tags': ['erc20']}, {'symbol': 'UTK', 'name': 'Utrust', 'tags': ['erc20']}, {'symbol': 'MTL', 'name': 'Metal DAO', 'tags': ['erc20']}, {'symbol': 'WaBi', 'name': 'Wabi', 'tags': ['erc20']}, {'symbol': 'REN', 'name': 'Ren', 'tags': ['erc20', 'defiToken']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}, {'symbol': 'USDT', 'name': 'Tether USDt', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FET', 'name': 'Fetch.ai', 'tags': ['erc20']}, {'symbol': 'DGX', 'name': 'Digix Gold Token', 'tags': ['erc20']}, {'symbol': 'USDP', 'name': 'Pax Dollar', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'SNX', 'name': 'Synthetix', 'tags': ['erc20', 'defiToken']}, {'symbol': 'USDC', 'name': 'USD Coin', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'LEO', 'name': 'UNUS SED LEO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'WBTC', 'name': 'Wrapped Bitcoin', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'WETH', 'name': 'WETH', 'tags': ['erc20', 'tokenizedAsset']}, {'symbol': 'DAI', 'name': 'Dai', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'BUSD', 'name': 'Binance USD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'USDK', 'name': 'USDK', 'tags': ['erc20']}, {'symbol': 'sUSD', 'name': 'sUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'REP', 'name': 'Augur', 'tags': ['erc20', 'defiToken']}, {'symbol': 'HUSD', 'name': 'HUSD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'OKB', 'name': 'OKB', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'NMR', 'name': 'Numeraire', 'tags': ['erc20', 'defiToken']}, {'symbol': 'UBT', 'name': 'Unibright', 'tags': ['erc20']}, {'symbol': 'RDN', 'name': 'Raiden Network Token', 'tags': ['erc20']}, {'symbol': 'COMP', 'name': 'Compound', 'tags': ['erc20', 'defiToken']}, {'symbol': 'wNXM', 'name': 'Wrapped NXM', 'tags': ['erc20']}, {'symbol': 'LDO', 'name': 'Lido DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'ROOK', 'name': 'Rook', 'tags': ['erc20', 'defi']}, {'symbol': 'MIR', 'name': 'Mirror Protocol', 'tags': ['erc20']}, {'symbol': 'HEGIC', 'name': 'Hegic', 'tags': ['erc20', 'defi']}, {'symbol': 'BADGER', 'name': 'Badger DAO', 'tags': ['erc20']}, {'symbol': 'NFTX', 'name': 'NFTX', 'tags': ['erc20']}, {'symbol': 'PERP', 'name': 'Perpetual Protocol', 'tags': ['erc20', 'defi']}, {'symbol': 'RPL', 'name': 'Rocket Pool', 'tags': ['erc20']}, {'symbol': 'DODO', 'name': 'DODO', 'tags': ['erc20', 'defi']}, {'symbol': 'BOND', 'name': 'BarnBridge', 'tags': ['erc20', 'defi']}, {'symbol': 'MLN', 'name': 'Enzyme', 'tags': ['erc20', 'defi']}, {'symbol': 'INDEX', 'name': 'Index Cooperative', 'tags': ['erc20', 'defi']}, {'symbol': 'CVP', 'name': 'PowerPool', 'tags': ['erc20']}, {'symbol': 'DHT', 'name': 'dHedge DAO', 'tags': ['erc20', 'defi']}, {'symbol': 'Nsure', 'name': 'Nsure.Network', 'tags': ['erc20', 'defi']}, {'symbol': 'NDX', 'name': 'Indexed Finance', 'tags': ['erc20', 'defi']}, {'symbol': 'DDX', 'name': 'DerivaDAO', 'tags': ['erc20', 'exchangeToken']}, {'symbol': 'IMX', 'name': 'Immutable', 'tags': ['erc20']}, {'symbol': 'DYDX', 'name': 'dYdX', 'tags': ['erc20']}, {'symbol': 'FTM', 'name': 'Fantom', 'tags': ['erc20']}, {'symbol': 'METIS', 'name': 'MetisDAO', 'tags': ['erc20']}, {'symbol': 'BOBA', 'name': 'Boba Network', 'tags': ['erc20']}, {'symbol': 'CAKE', 'name': 'PancakeSwap', 'tags': ['erc20', 'defiToken']}, {'symbol': '1INCH', 'name': '1inch Network', 'tags': ['erc20', 'defiToken']}, {'symbol': 'AMP', 'name': 'Amp', 'tags': ['erc20']}, {'symbol': 'CVX', 'name': 'Convex Finance', 'tags': ['erc20']}, {'symbol': 'CVXCRV', 'name': 'Convex CRV', 'tags': ['erc20']}, {'symbol': 'FXS', 'name': 'Frax Share', 'tags': ['erc20']}, {'symbol': 'FLX', 'name': 'Reflexer Ungovernance Token', 'tags': ['erc20']}, {'symbol': 'rETH', 'name': 'Rocket Pool ETH', 'tags': ['erc20']}, {'symbol': 'SFRXETH', 'name': 'Frax Staked Ether', 'tags': ['erc20']}, {'symbol': 'SSV', 'name': 'ssv.network', 'tags': ['erc20']}, {'symbol': 'USDD', 'name': 'USDD', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'FRAX', 'name': 'Frax', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'RAI', 'name': 'Rai Reflex Index', 'tags': ['erc20', 'stablecoin']}, {'symbol': 'DPI', 'name': 'DeFi Pulse Index', 'tags': ['erc20']}, {'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>['USD']</t>
+          <t>['NATIVE', 'USD']</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -23703,20 +23703,20 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>/v1/metrics/defi/total_value_locked</t>
+          <t>/v1/metrics/protocols/aave_v1_collateral_rate_by_token</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[{'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>['USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -23736,25 +23736,25 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/channel_size_mean</t>
+          <t>/v1/metrics/protocols/aave_v1_stable_borrow_rate_by_token</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -23769,25 +23769,25 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/channel_size_median</t>
+          <t>/v1/metrics/protocols/aave_v1_variable_borrow_rate_by_token</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -23802,25 +23802,25 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/network_capacity_sum</t>
+          <t>/v1/metrics/protocols/aave_v2_collateral_rate_by_token</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -23835,15 +23835,15 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/channels_count</t>
+          <t>/v1/metrics/protocols/aave_v2_stable_borrow_rate_by_token</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
@@ -23853,7 +23853,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -23868,15 +23868,15 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/nodes_count</t>
+          <t>/v1/metrics/protocols/aave_v2_variable_borrow_rate_by_token</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -23901,20 +23901,20 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/base_fee_median</t>
+          <t>/v1/metrics/protocols/aave_v1_available_liquidity_sum_by_token</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -23934,15 +23934,15 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/gini_capacity_distribution</t>
+          <t>/v1/metrics/protocols/aave_v1_available_liquidity_perc_by_token</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -23967,15 +23967,15 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/gini_channel_distribution</t>
+          <t>/v1/metrics/protocols/aave_v2_available_liquidity_sum_by_token</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -24000,15 +24000,15 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/node_connectivity</t>
+          <t>/v1/metrics/protocols/aave_v2_available_liquidity_perc_by_token</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -24033,15 +24033,15 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>/v1/metrics/lightning/fee_rate_median</t>
+          <t>/v1/metrics/protocols/aave_v2_borrows_sum_by_token</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -24066,15 +24066,15 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_count_distribution</t>
+          <t>/v1/metrics/protocols/aave_v2_borrows_perc_by_token</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -24084,7 +24084,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -24099,15 +24099,15 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_count_sum</t>
+          <t>/v1/metrics/protocols/aave_v2_total_value_locked_sum</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -24132,15 +24132,15 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_size_distribution</t>
+          <t>/v1/metrics/protocols/aave_v2_total_value_locked_perc</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'AAVE_PROTOCOL', 'name': 'Aave Protocol', 'tags': ['protocol']}]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -24150,7 +24150,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -24165,11 +24165,11 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_size_sum</t>
+          <t>/v1/metrics/institutions/purpose_etf_holdings_sum</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -24198,11 +24198,11 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/fees_distribution</t>
+          <t>/v1/metrics/institutions/purpose_etf_flows_sum</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -24211,12 +24211,12 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['NATIVE']</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -24231,11 +24231,11 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/fees_sum</t>
+          <t>/v1/metrics/institutions/purpose_etf_aum_sum</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -24244,12 +24244,12 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['USD']</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -24264,7 +24264,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_value_distribution</t>
+          <t>/v1/metrics/defi/total_value_locked</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -24272,17 +24272,17 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+          <t>[{'symbol': 'ETH', 'name': 'Ethereum', 'tags': ['top']}]</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>['NATIVE', 'USD']</t>
+          <t>['USD']</t>
         </is>
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>['10m', '1h', '24h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/txs_value_sum</t>
+          <t>/v1/metrics/lightning/channel_size_mean</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -24330,7 +24330,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/fees_average_relative</t>
+          <t>/v1/metrics/lightning/channel_size_median</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>/v1/metrics/mempool/fees_median_relative</t>
+          <t>/v1/metrics/lightning/network_capacity_sum</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -24396,11 +24396,11 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>/v1/metrics/signals/altcoin_index</t>
+          <t>/v1/metrics/lightning/channels_count</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>['24h']</t>
+          <t>['10m', '1h', '24h']</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -24429,11 +24429,11 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>/v1/metrics/signals/btc_risk_index</t>
+          <t>/v1/metrics/lightning/nodes_count</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>['24h', '1h']</t>
+          <t>['10m', '1h', '24h']</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -24462,11 +24462,11 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>/v1/metrics/signals/mcap_returns_vs_btc</t>
+          <t>/v1/metrics/lightning/base_fee_median</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -24475,12 +24475,12 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>['NATIVE']</t>
+          <t>['NATIVE', 'USD']</t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>['24h', '1h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -24495,11 +24495,11 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>/v1/metrics/signals/l1_native_tokens_returns_vs_btc</t>
+          <t>/v1/metrics/lightning/gini_capacity_distribution</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>['24h', '1h']</t>
+          <t>['24h']</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -24528,28 +24528,589 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
+          <t>/v1/metrics/lightning/gini_channel_distribution</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>2</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>['24h']</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>/v1/metrics/lightning/node_connectivity</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>2</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>['24h']</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>/v1/metrics/lightning/fee_rate_median</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>['24h']</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_count_distribution</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>2</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_count_sum</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>2</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_size_distribution</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>2</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_size_sum</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>2</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/fees_distribution</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/fees_sum</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>2</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_value_distribution</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>3</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/txs_value_sum</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>3</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/fees_average_relative</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>3</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>/v1/metrics/mempool/fees_median_relative</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>3</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>['NATIVE', 'USD']</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>['10m', '1h', '24h']</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>/v1/metrics/signals/altcoin_index</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>['24h']</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>/v1/metrics/signals/btc_risk_index</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>['24h', '1h']</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>/v1/metrics/signals/mcap_returns_vs_btc</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>['24h', '1h']</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>/v1/metrics/signals/l1_native_tokens_returns_vs_btc</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>[{'symbol': 'BTC', 'name': 'Bitcoin', 'tags': ['top']}]</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>['24h', '1h']</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>['JSON', 'CSV']</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
           <t>/v1/metrics/signals/ecosystem_momentum_index</t>
         </is>
       </c>
-      <c r="C731" t="n">
+      <c r="C748" t="n">
         <v>1</v>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D748" t="inlineStr">
         <is>
           <t>[{'symbol': 'ATOM', 'name': 'Cosmos', 'tags': ['top']}, {'symbol': 'BNB', 'name': 'BSC', 'tags': ['top']}, {'symbol': 'DOT', 'name': 'Polkadot', 'tags': ['top']}, {'symbol': 'SOL', 'name': 'Solana', 'tags': ['top']}, {'symbol': 'MATIC', 'name': 'Polygon', 'tags': ['erc20']}]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>['NATIVE']</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr">
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>['NATIVE']</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
         <is>
           <t>['24h', '1h']</t>
         </is>
       </c>
-      <c r="G731" t="inlineStr">
+      <c r="G748" t="inlineStr">
         <is>
           <t>['JSON', 'CSV']</t>
         </is>
